--- a/HW3_Excel1/HW3_113306063.xlsx
+++ b/HW3_Excel1/HW3_113306063.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陳亭妤\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陳亭妤\OneDrive\文件\GitHub\1141_IntroToCS_113306063\HW3_Excel1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB22F844-F5E6-44AA-B46F-DA0549A46AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412CD1F5-6B3C-48C5-85B9-4256B8B08582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
@@ -340,7 +340,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -358,16 +358,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -806,7 +796,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -838,7 +828,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -874,14 +864,23 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-290B-4979-A264-B8AD481575AE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -895,14 +894,23 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-290B-4979-A264-B8AD481575AE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -921,11 +929,9 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:tint val="88500"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="lt1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -935,12 +941,12 @@
                   <a:endParaRPr lang="zh-TW"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
+              <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -964,11 +970,9 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:tint val="55000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="lt1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -978,12 +982,12 @@
                   <a:endParaRPr lang="zh-TW"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
+              <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -991,12 +995,38 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
-            <c:dLblPos val="outEnd"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -1053,7 +1083,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="1"/>
@@ -1072,6 +1102,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1673,7 +1734,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1684,7 +1745,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1719,25 +1780,26 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1745,11 +1807,14 @@
       </a:solidFill>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -1761,19 +1826,22 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -1783,27 +1851,17 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="10000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="threePt" dir="t"/>
-      </a:scene3d>
-      <a:sp3d>
-        <a:bevelT w="127000" h="127000"/>
-        <a:bevelB w="127000" h="127000"/>
-      </a:sp3d>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -1813,7 +1871,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -1831,7 +1889,7 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1852,7 +1910,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2057,7 +2115,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2065,7 +2123,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2109,7 +2167,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2568,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3266,11 +3324,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L2:L15">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"PASS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
